--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="50">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">1G1B2X</t>
   </si>
   <si>
+    <t xml:space="preserve">Add to a bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t xml:space="preserve">1G2X</t>
   </si>
   <si>
+    <t xml:space="preserve">Remove from a bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
@@ -142,13 +148,25 @@
     <t xml:space="preserve">money</t>
   </si>
   <si>
+    <t xml:space="preserve">Wealth + Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insight + Charisma</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intrigue</t>
   </si>
   <si>
     <t xml:space="preserve">2G2B4X</t>
   </si>
   <si>
-    <t xml:space="preserve">Steal an ally</t>
+    <t xml:space="preserve">Move an ally</t>
   </si>
   <si>
     <t xml:space="preserve">intrigue</t>
@@ -251,10 +269,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -310,8 +328,11 @@
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -323,10 +344,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>4</v>
@@ -342,23 +363,26 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>4</v>
@@ -374,8 +398,11 @@
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2</v>
@@ -387,10 +414,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>4</v>
@@ -406,8 +433,11 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -419,10 +449,10 @@
         <v>1</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>4</v>
@@ -438,8 +468,11 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>3</v>
@@ -451,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>4</v>
@@ -470,8 +503,11 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -483,10 +519,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>4</v>
@@ -502,8 +538,11 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>3</v>
@@ -515,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>4</v>
@@ -534,8 +573,11 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -547,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>4</v>
@@ -566,8 +608,11 @@
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -579,10 +624,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>4</v>
@@ -598,23 +643,26 @@
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>4</v>
@@ -630,23 +678,26 @@
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>4</v>
@@ -662,23 +713,26 @@
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>4</v>
@@ -694,8 +748,11 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -707,10 +764,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>4</v>
@@ -726,8 +783,11 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D15" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>3</v>
@@ -739,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>4</v>
@@ -758,23 +818,26 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="K16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>4</v>
@@ -782,16 +845,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
@@ -803,59 +869,59 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -867,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="0" t="n">
         <v>2</v>
       </c>
@@ -899,92 +965,92 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
       </c>
@@ -995,27 +1061,27 @@
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>3</v>
@@ -1027,27 +1093,27 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -1059,27 +1125,27 @@
         <v>1</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -1091,27 +1157,27 @@
         <v>1</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -1123,27 +1189,27 @@
         <v>1</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -1155,60 +1221,60 @@
         <v>1</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="L28" s="0" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F30" s="0" t="n">
         <v>3</v>
       </c>
@@ -1219,56 +1285,56 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -1282,13 +1348,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>2</v>
@@ -1302,13 +1371,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
@@ -1322,13 +1394,16 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>3</v>
@@ -1342,13 +1417,16 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
@@ -1362,16 +1440,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>2</v>
@@ -1385,16 +1463,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
@@ -1408,16 +1486,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>3</v>
@@ -1431,16 +1509,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1</v>
@@ -1454,16 +1532,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -1477,19 +1555,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
@@ -1503,19 +1581,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -1529,19 +1607,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -1555,19 +1633,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -1581,19 +1659,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2</v>
@@ -1607,16 +1685,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2</v>
@@ -1625,24 +1703,24 @@
         <v>1</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>4</v>
@@ -1651,24 +1729,24 @@
         <v>1</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>6</v>
@@ -1677,24 +1755,24 @@
         <v>1</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
@@ -1703,24 +1781,24 @@
         <v>1</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>4</v>
@@ -1729,24 +1807,24 @@
         <v>1</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -1755,24 +1833,24 @@
         <v>1</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -1781,24 +1859,24 @@
         <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>4</v>
@@ -1807,24 +1885,24 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>6</v>
@@ -1833,166 +1911,308 @@
         <v>1</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="I56" s="0"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="I57" s="0"/>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="I58" s="0"/>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="I59" s="0"/>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>43</v>
+      <c r="H64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -58,7 +58,13 @@
     <t xml:space="preserve">Votes_Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Enthusiasm</t>
+    <t xml:space="preserve">Icon_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votes_Sign_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Support</t>
   </si>
   <si>
     <t xml:space="preserve">Votes</t>
@@ -67,7 +73,7 @@
     <t xml:space="preserve">1G1B2X</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to a bill</t>
+    <t xml:space="preserve">Add to bill</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -94,7 +100,7 @@
     <t xml:space="preserve">1G2X</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove from a bill</t>
+    <t xml:space="preserve">Remove all from bill</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -103,6 +109,9 @@
     <t xml:space="preserve">1B2X</t>
   </si>
   <si>
+    <t xml:space="preserve">Universal Support</t>
+  </si>
+  <si>
     <t xml:space="preserve">Votes_All</t>
   </si>
   <si>
@@ -148,16 +157,16 @@
     <t xml:space="preserve">money</t>
   </si>
   <si>
-    <t xml:space="preserve">Wealth + Insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double Attribute</t>
+    <t xml:space="preserve">Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double_Attribute</t>
   </si>
   <si>
     <t xml:space="preserve">2G</t>
   </si>
   <si>
-    <t xml:space="preserve">Insight + Charisma</t>
+    <t xml:space="preserve">Partnership</t>
   </si>
   <si>
     <t xml:space="preserve">Intrigue</t>
@@ -269,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K59" activeCellId="0" sqref="K59"/>
+      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -317,22 +326,28 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -344,10 +359,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>4</v>
@@ -355,34 +370,34 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>4</v>
@@ -390,19 +405,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2</v>
@@ -414,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>4</v>
@@ -425,34 +440,34 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>4</v>
@@ -460,34 +475,34 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>4</v>
@@ -495,19 +510,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>3</v>
@@ -519,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>4</v>
@@ -530,19 +545,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>3</v>
@@ -554,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>4</v>
@@ -565,19 +580,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -589,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>4</v>
@@ -600,19 +615,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -624,10 +639,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>4</v>
@@ -635,34 +650,34 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>4</v>
@@ -670,34 +685,34 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>4</v>
@@ -705,34 +720,34 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>4</v>
@@ -740,19 +755,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>2</v>
@@ -764,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>4</v>
@@ -775,34 +790,34 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="K15" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>4</v>
@@ -810,19 +825,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>3</v>
@@ -834,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>4</v>
@@ -845,20 +860,20 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
       </c>
@@ -869,124 +884,124 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="0" t="n">
         <v>3</v>
       </c>
@@ -997,28 +1012,28 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
@@ -1029,28 +1044,28 @@
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="F23" s="0" t="n">
         <v>3</v>
       </c>
@@ -1061,27 +1076,27 @@
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>3</v>
@@ -1093,91 +1108,91 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -1189,27 +1204,27 @@
         <v>1</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -1221,27 +1236,27 @@
         <v>1</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>3</v>
@@ -1253,27 +1268,27 @@
         <v>1</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>24</v>
-      </c>
       <c r="E30" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>3</v>
@@ -1285,263 +1300,293 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="F35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="0" t="s">
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -1555,19 +1600,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>2</v>
@@ -1581,19 +1626,19 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -1607,19 +1652,19 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -1633,19 +1678,19 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -1659,19 +1704,19 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2</v>
@@ -1685,16 +1730,16 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2</v>
@@ -1703,24 +1748,24 @@
         <v>1</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>4</v>
@@ -1729,24 +1774,25 @@
         <v>1</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AMJ48" s="0"/>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>6</v>
@@ -1755,24 +1801,25 @@
         <v>1</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C50" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
@@ -1781,24 +1828,24 @@
         <v>1</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>4</v>
@@ -1807,24 +1854,25 @@
         <v>1</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AMJ51" s="0"/>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>6</v>
@@ -1833,24 +1881,25 @@
         <v>1</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -1859,24 +1908,24 @@
         <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>4</v>
@@ -1885,24 +1934,25 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>6</v>
@@ -1911,24 +1961,25 @@
         <v>1</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ55" s="0"/>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>3</v>
@@ -1939,20 +1990,32 @@
       <c r="H56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="0"/>
+      <c r="I56" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>3</v>
@@ -1963,20 +2026,32 @@
       <c r="H57" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I57" s="0"/>
+      <c r="I57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>3</v>
@@ -1987,20 +2062,32 @@
       <c r="H58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I58" s="0"/>
+      <c r="I58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>3</v>
@@ -2011,20 +2098,32 @@
       <c r="H59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I59" s="0"/>
+      <c r="I59" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>3</v>
@@ -2035,19 +2134,32 @@
       <c r="H60" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ60" s="0"/>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>1</v>
@@ -2058,22 +2170,35 @@
       <c r="H61" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>2</v>
@@ -2082,24 +2207,25 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>4</v>
@@ -2108,24 +2234,25 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>6</v>
@@ -2134,24 +2261,25 @@
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>2</v>
@@ -2160,24 +2288,25 @@
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ65" s="0"/>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>4</v>
@@ -2186,24 +2315,25 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>6</v>
@@ -2212,8 +2342,9 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="AMJ67" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Scandal</t>
   </si>
   <si>
-    <t xml:space="preserve">1G2X</t>
+    <t xml:space="preserve">2G3X</t>
   </si>
   <si>
     <t xml:space="preserve">Remove all from bill</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">1B2X</t>
+    <t xml:space="preserve">2B3X</t>
   </si>
   <si>
     <t xml:space="preserve">Universal Support</t>
@@ -172,7 +172,7 @@
     <t xml:space="preserve">Intrigue</t>
   </si>
   <si>
-    <t xml:space="preserve">2G2B4X</t>
+    <t xml:space="preserve">3G3B5X</t>
   </si>
   <si>
     <t xml:space="preserve">Move an ally</t>
@@ -280,8 +280,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,7 +350,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>2</v>
@@ -365,7 +365,7 @@
         <v>20</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -385,7 +385,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>3</v>
@@ -399,8 +399,8 @@
       <c r="K3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>4</v>
+      <c r="L3" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +420,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1</v>
@@ -434,8 +434,8 @@
       <c r="K4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>4</v>
+      <c r="L4" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,7 +455,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>2</v>
@@ -469,8 +469,8 @@
       <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>4</v>
+      <c r="L5" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,8 +504,8 @@
       <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>4</v>
+      <c r="L6" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,7 +525,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>3</v>
@@ -539,8 +539,8 @@
       <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>4</v>
+      <c r="L7" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>1</v>
@@ -574,8 +574,8 @@
       <c r="K8" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>4</v>
+      <c r="L8" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -609,8 +609,8 @@
       <c r="K9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>4</v>
+      <c r="L9" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>2</v>
@@ -644,8 +644,8 @@
       <c r="K10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>4</v>
+      <c r="L10" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,8 +679,8 @@
       <c r="K11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>4</v>
+      <c r="L11" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,8 +714,8 @@
       <c r="K12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>4</v>
+      <c r="L12" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,7 +735,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>3</v>
@@ -749,8 +749,8 @@
       <c r="K13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>4</v>
+      <c r="L13" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -770,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2</v>
@@ -784,8 +784,8 @@
       <c r="K14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>4</v>
+      <c r="L14" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>3</v>
@@ -819,8 +819,8 @@
       <c r="K15" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>4</v>
+      <c r="L15" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,7 +840,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>3</v>
@@ -854,8 +854,8 @@
       <c r="K16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>4</v>
+      <c r="L16" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2</v>
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>3</v>
@@ -939,7 +939,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>2</v>
@@ -971,7 +971,7 @@
         <v>23</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>3</v>
@@ -1035,7 +1035,7 @@
         <v>22</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>3</v>
@@ -1067,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1</v>
@@ -1163,7 +1163,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>18</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>3</v>
@@ -1227,7 +1227,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>3</v>
@@ -1259,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>1</v>
@@ -1281,7 +1281,7 @@
       <c r="B30" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -1313,7 +1313,7 @@
       <c r="B31" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -1355,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>2</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>3</v>
@@ -1407,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>3</v>
@@ -1433,7 +1433,7 @@
         <v>22</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>3</v>
@@ -1459,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>21</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>2</v>
@@ -1615,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>2</v>
@@ -1667,7 +1667,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>3</v>
@@ -1693,7 +1693,7 @@
         <v>23</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>2</v>
@@ -1719,7 +1719,7 @@
         <v>23</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="54">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Votes</t>
   </si>
   <si>
-    <t xml:space="preserve">1G1B2X</t>
+    <t xml:space="preserve">1B2X</t>
   </si>
   <si>
     <t xml:space="preserve">Add to bill</t>
@@ -94,6 +94,9 @@
     <t xml:space="preserve">G</t>
   </si>
   <si>
+    <t xml:space="preserve">1G2X</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scandal</t>
   </si>
   <si>
@@ -172,7 +175,7 @@
     <t xml:space="preserve">Intrigue</t>
   </si>
   <si>
-    <t xml:space="preserve">3G3B5X</t>
+    <t xml:space="preserve">3B5X</t>
   </si>
   <si>
     <t xml:space="preserve">Move an ally</t>
@@ -280,8 +283,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F46" activeCellId="0" sqref="F46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -656,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>17</v>
@@ -691,7 +694,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>17</v>
@@ -726,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>17</v>
@@ -860,16 +863,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>22</v>
@@ -884,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>22</v>
@@ -892,16 +895,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>23</v>
@@ -916,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>22</v>
@@ -924,16 +927,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>21</v>
@@ -948,7 +951,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>22</v>
@@ -956,16 +959,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>23</v>
@@ -980,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>21</v>
@@ -988,16 +991,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>22</v>
@@ -1012,7 +1015,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>21</v>
@@ -1020,16 +1023,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>22</v>
@@ -1044,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>21</v>
@@ -1052,16 +1055,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>23</v>
@@ -1076,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>20</v>
@@ -1084,16 +1087,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>20</v>
@@ -1108,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>20</v>
@@ -1116,16 +1119,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>22</v>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>20</v>
@@ -1148,16 +1151,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>20</v>
@@ -1172,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>18</v>
@@ -1180,16 +1183,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>18</v>
@@ -1204,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>18</v>
@@ -1212,16 +1215,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>21</v>
@@ -1236,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>18</v>
@@ -1244,16 +1247,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>21</v>
@@ -1268,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>23</v>
@@ -1276,16 +1279,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>23</v>
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>23</v>
@@ -1308,16 +1311,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>18</v>
@@ -1332,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>23</v>
@@ -1340,13 +1343,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -1366,13 +1369,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1392,13 +1395,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -1418,13 +1421,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -1444,13 +1447,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -1470,16 +1473,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>22</v>
@@ -1496,16 +1499,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>21</v>
@@ -1522,16 +1525,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>18</v>
@@ -1548,16 +1551,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>21</v>
@@ -1574,16 +1577,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>20</v>
@@ -1600,16 +1603,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>20</v>
@@ -1626,16 +1629,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>18</v>
@@ -1652,16 +1655,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>23</v>
@@ -1678,16 +1681,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>23</v>
@@ -1704,16 +1707,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>23</v>
@@ -1730,13 +1733,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>20</v>
@@ -1748,21 +1751,21 @@
         <v>1</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>20</v>
@@ -1774,22 +1777,22 @@
         <v>1</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>20</v>
@@ -1801,22 +1804,22 @@
         <v>1</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>22</v>
@@ -1828,21 +1831,21 @@
         <v>1</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -1854,22 +1857,22 @@
         <v>1</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ51" s="0"/>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -1881,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>18</v>
@@ -1908,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>19</v>
@@ -1916,13 +1919,13 @@
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
@@ -1934,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -1943,13 +1946,13 @@
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>19</v>
@@ -1970,13 +1973,13 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>20</v>
@@ -1991,28 +1994,28 @@
         <v>1</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ56" s="0"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>21</v>
@@ -2027,28 +2030,28 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>18</v>
@@ -2063,28 +2066,28 @@
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>22</v>
@@ -2099,28 +2102,28 @@
         <v>1</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>23</v>
@@ -2135,28 +2138,28 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ60" s="0"/>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>20</v>
@@ -2171,31 +2174,31 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>21</v>
@@ -2207,22 +2210,22 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>21</v>
@@ -2234,22 +2237,22 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>21</v>
@@ -2261,22 +2264,22 @@
         <v>1</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>23</v>
@@ -2288,22 +2291,22 @@
         <v>1</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ65" s="0"/>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>23</v>
@@ -2315,22 +2318,22 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ66" s="0"/>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>23</v>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AMJ67" s="0"/>
     </row>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Insight</t>
   </si>
   <si>
-    <t xml:space="preserve">eye</t>
+    <t xml:space="preserve">ally_number</t>
   </si>
   <si>
     <t xml:space="preserve">Wealth</t>
@@ -283,8 +283,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="74" zoomScaleNormal="74" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M56" activeCellId="0" sqref="M56:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1856,7 +1856,7 @@
       <c r="H51" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -1883,7 +1883,7 @@
       <c r="H52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -2101,7 +2101,7 @@
       <c r="H59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J59" s="1" t="s">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="59">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -142,22 +142,37 @@
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
+    <t xml:space="preserve">2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ally_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth</t>
+  </si>
+  <si>
     <t xml:space="preserve">1G</t>
   </si>
   <si>
-    <t xml:space="preserve">trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ally_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth</t>
-  </si>
-  <si>
     <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play on another player</t>
   </si>
   <si>
     <t xml:space="preserve">Discovery</t>
@@ -281,10 +296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ67"/>
+  <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M56" activeCellId="0" sqref="M56:M58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1494,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,8 +1534,8 @@
       <c r="G38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="0" t="n">
-        <v>1</v>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,8 +1560,8 @@
       <c r="G39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <v>1</v>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1571,8 +1586,8 @@
       <c r="G40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>1</v>
+      <c r="H40" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,8 +1612,8 @@
       <c r="G41" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>1</v>
+      <c r="H41" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,7 +1833,7 @@
       <c r="B50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E50" s="0" t="s">
@@ -1833,8 +1848,8 @@
       <c r="I50" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="J50" s="0" t="s">
-        <v>28</v>
+      <c r="J50" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AMJ51" s="0"/>
     </row>
@@ -1887,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AMJ52" s="0"/>
     </row>
@@ -1899,7 +1914,7 @@
         <v>39</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>18</v>
@@ -1911,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>19</v>
@@ -1925,7 +1940,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
@@ -1937,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -1952,7 +1967,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
@@ -1964,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>19</v>
@@ -1972,382 +1987,652 @@
       <c r="AMJ55" s="0"/>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="J56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ56" s="0"/>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ57" s="0"/>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ58" s="0"/>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ59" s="0"/>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ61" s="0"/>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G56" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M56" s="1" t="s">
+      <c r="F64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AMJ56" s="0"/>
-    </row>
-    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AMJ57" s="0"/>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AMJ58" s="0"/>
-    </row>
-    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AMJ59" s="0"/>
-    </row>
-    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G60" s="1" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H60" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AMJ60" s="0"/>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AMJ61" s="0"/>
-    </row>
-    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F62" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AMJ62" s="0"/>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AMJ63" s="0"/>
-    </row>
-    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H65" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>53</v>
+      <c r="I65" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="AMJ65" s="0"/>
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>-2</v>
       </c>
       <c r="H66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="AMJ66" s="0"/>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ71" s="0"/>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ72" s="0"/>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H67" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AMJ67" s="0"/>
+      <c r="H73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ74" s="0"/>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ75" s="0"/>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AMJ76" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="56">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -70,118 +70,109 @@
     <t xml:space="preserve">Votes</t>
   </si>
   <si>
+    <t xml:space="preserve">1R2X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scandal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Y3X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove all from bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Universal Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Votes_All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research</t>
+  </si>
+  <si>
     <t xml:space="preserve">1B2X</t>
   </si>
   <si>
-    <t xml:space="preserve">Add to bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
+    <t xml:space="preserve">Read Fine Print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assassinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kill an ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charisma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute</t>
   </si>
   <si>
     <t xml:space="preserve">1G2X</t>
   </si>
   <si>
-    <t xml:space="preserve">Scandal</t>
+    <t xml:space="preserve">trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ally_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play on another player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discovery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double_Attribute</t>
   </si>
   <si>
     <t xml:space="preserve">2G3X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove all from bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B3X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universal Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Votes_All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1R2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Fine Print</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assassinate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kill an ally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charisma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ally_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone else</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Play on another player</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double_Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2G</t>
   </si>
   <si>
     <t xml:space="preserve">Partnership</t>
@@ -298,13 +289,27 @@
   </sheetPr>
   <dimension ref="A1:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50:C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C43" activeCellId="0" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>17</v>
@@ -709,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>17</v>
@@ -744,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>17</v>
@@ -878,16 +883,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>22</v>
@@ -902,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>22</v>
@@ -910,16 +915,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>23</v>
@@ -934,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>22</v>
@@ -942,16 +947,16 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>21</v>
@@ -966,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>22</v>
@@ -974,16 +979,16 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>23</v>
@@ -998,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>21</v>
@@ -1006,16 +1011,16 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>22</v>
@@ -1030,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>21</v>
@@ -1038,16 +1043,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>22</v>
@@ -1062,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>21</v>
@@ -1070,16 +1075,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>23</v>
@@ -1094,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>20</v>
@@ -1102,16 +1107,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>20</v>
@@ -1126,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>20</v>
@@ -1134,16 +1139,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>22</v>
@@ -1158,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>20</v>
@@ -1166,16 +1171,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>20</v>
@@ -1190,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>18</v>
@@ -1198,16 +1203,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>18</v>
@@ -1222,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>18</v>
@@ -1230,16 +1235,16 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>27</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>21</v>
@@ -1254,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>18</v>
@@ -1262,16 +1267,16 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="D29" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>21</v>
@@ -1286,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>23</v>
@@ -1294,16 +1299,16 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D30" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>23</v>
@@ -1318,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>23</v>
@@ -1326,16 +1331,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>18</v>
@@ -1350,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>23</v>
@@ -1358,13 +1363,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>17</v>
@@ -1384,13 +1389,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1410,13 +1415,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -1436,13 +1441,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>17</v>
@@ -1462,13 +1467,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>17</v>
@@ -1488,16 +1493,16 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>22</v>
@@ -1514,16 +1519,16 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>21</v>
@@ -1540,16 +1545,16 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>18</v>
@@ -1566,16 +1571,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>21</v>
@@ -1592,16 +1597,16 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>20</v>
@@ -1618,16 +1623,16 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>20</v>
@@ -1644,16 +1649,16 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="E43" s="0" t="s">
         <v>18</v>
@@ -1670,16 +1675,16 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>23</v>
@@ -1696,16 +1701,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="E45" s="0" t="s">
         <v>23</v>
@@ -1722,16 +1727,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>37</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>23</v>
@@ -1748,13 +1753,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>20</v>
@@ -1766,21 +1771,21 @@
         <v>1</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>20</v>
@@ -1792,22 +1797,22 @@
         <v>1</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ48" s="0"/>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>20</v>
@@ -1819,22 +1824,22 @@
         <v>1</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>22</v>
@@ -1846,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -1854,13 +1859,13 @@
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -1872,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
@@ -1881,13 +1886,13 @@
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -1899,7 +1904,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>19</v>
@@ -1908,13 +1913,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E53" s="0" t="s">
         <v>18</v>
@@ -1926,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>19</v>
@@ -1934,13 +1939,13 @@
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>18</v>
@@ -1952,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -1961,13 +1966,13 @@
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>18</v>
@@ -1979,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>19</v>
@@ -1988,13 +1993,13 @@
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>21</v>
@@ -2009,22 +2014,22 @@
         <v>1</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ56" s="0"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>18</v>
@@ -2039,22 +2044,22 @@
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ57" s="0"/>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>22</v>
@@ -2069,22 +2074,22 @@
         <v>1</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>23</v>
@@ -2099,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>19</v>
@@ -2108,13 +2113,13 @@
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E60" s="0" t="s">
         <v>22</v>
@@ -2129,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>19</v>
@@ -2138,13 +2143,13 @@
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E61" s="0" t="s">
         <v>21</v>
@@ -2159,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>19</v>
@@ -2168,13 +2173,13 @@
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E62" s="0" t="s">
         <v>18</v>
@@ -2189,22 +2194,22 @@
         <v>1</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ62" s="0"/>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E63" s="0" t="s">
         <v>21</v>
@@ -2219,22 +2224,22 @@
         <v>1</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ63" s="0"/>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E64" s="0" t="s">
         <v>20</v>
@@ -2249,22 +2254,22 @@
         <v>1</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ64" s="0"/>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>20</v>
@@ -2279,13 +2284,13 @@
         <v>1</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>19</v>
@@ -2294,13 +2299,13 @@
     </row>
     <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>21</v>
@@ -2315,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>19</v>
@@ -2330,13 +2335,13 @@
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>18</v>
@@ -2351,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>19</v>
@@ -2366,13 +2371,13 @@
     </row>
     <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>22</v>
@@ -2387,28 +2392,28 @@
         <v>1</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ68" s="0"/>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>23</v>
@@ -2423,28 +2428,28 @@
         <v>1</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>20</v>
@@ -2459,31 +2464,31 @@
         <v>1</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AMJ70" s="0"/>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>21</v>
@@ -2495,22 +2500,22 @@
         <v>1</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ71" s="0"/>
     </row>
     <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>21</v>
@@ -2522,22 +2527,22 @@
         <v>1</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ72" s="0"/>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>21</v>
@@ -2549,22 +2554,22 @@
         <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ73" s="0"/>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>23</v>
@@ -2576,22 +2581,22 @@
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>23</v>
@@ -2603,22 +2608,22 @@
         <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ75" s="0"/>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>23</v>
@@ -2630,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AMJ76" s="0"/>
     </row>
